--- a/src/main/resources/excelimport/WM2018.xlsx
+++ b/src/main/resources/excelimport/WM2018.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="241">
   <si>
     <t>Country 1</t>
   </si>
@@ -715,9 +715,6 @@
     <t>Luschniki</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>Jekaterinburg</t>
   </si>
   <si>
@@ -733,12 +730,6 @@
     <t>Wolgograd</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>Sotschi</t>
   </si>
   <si>
@@ -751,58 +742,13 @@
     <t>Kaliningrad</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>Spartak</t>
   </si>
   <si>
     <t>Nischni Nowgorod</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
+    <t>Moskau</t>
   </si>
 </sst>
 </file>
@@ -1172,9 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E440"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1207,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1221,10 +1165,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1233,7 +1177,7 @@
         <v>43266.583333333336</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1250,15 +1194,15 @@
         <v>43270.833333333336</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1267,12 +1211,12 @@
         <v>43271.708333333336</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1284,15 +1228,15 @@
         <v>43276.666666666664</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1301,15 +1245,15 @@
         <v>43276.666666666664</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>216</v>
@@ -1318,15 +1262,15 @@
         <v>43266.708333333336</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>216</v>
@@ -1335,15 +1279,15 @@
         <v>43266.833333333336</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>216</v>
@@ -1357,10 +1301,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>216</v>
@@ -1369,15 +1313,15 @@
         <v>43271.833333333336</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>216</v>
@@ -1386,15 +1330,15 @@
         <v>43276.833333333336</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>216</v>
@@ -1403,15 +1347,15 @@
         <v>43276.833333333336</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>217</v>
@@ -1420,15 +1364,15 @@
         <v>43267.5</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
         <v>217</v>
@@ -1437,15 +1381,15 @@
         <v>43267.75</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
         <v>217</v>
@@ -1454,15 +1398,15 @@
         <v>43272.583333333336</v>
       </c>
       <c r="E16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>217</v>
@@ -1471,15 +1415,15 @@
         <v>43272.708333333336</v>
       </c>
       <c r="E17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>217</v>
@@ -1493,10 +1437,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
         <v>217</v>
@@ -1505,15 +1449,15 @@
         <v>43277.666666666664</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>218</v>
@@ -1522,15 +1466,15 @@
         <v>43267.625</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>218</v>
@@ -1539,15 +1483,15 @@
         <v>43267.875</v>
       </c>
       <c r="E21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>218</v>
@@ -1556,15 +1500,15 @@
         <v>43272.833333333336</v>
       </c>
       <c r="E22" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>218</v>
@@ -1573,15 +1517,15 @@
         <v>43273.708333333336</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>218</v>
@@ -1590,15 +1534,15 @@
         <v>43277.833333333336</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
         <v>218</v>
@@ -1607,15 +1551,15 @@
         <v>43277.833333333336</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
         <v>219</v>
@@ -1624,15 +1568,15 @@
         <v>43268.833333333336</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>219</v>
@@ -1641,15 +1585,15 @@
         <v>43268.583333333336</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
         <v>219</v>
@@ -1658,15 +1602,15 @@
         <v>43273.583333333336</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>219</v>
@@ -1675,15 +1619,15 @@
         <v>43273.833333333336</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="C30" t="s">
         <v>219</v>
@@ -1692,15 +1636,15 @@
         <v>43278.833333333336</v>
       </c>
       <c r="E30" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
         <v>219</v>
@@ -1709,106 +1653,358 @@
         <v>43278.833333333336</v>
       </c>
       <c r="E31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43268.708333333336</v>
+      </c>
+      <c r="E32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43269.583333333336</v>
+      </c>
+      <c r="E33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43274.833333333336</v>
+      </c>
+      <c r="E34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43274.708333333336</v>
+      </c>
+      <c r="E35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="2">
+        <v>43278.666666666664</v>
+      </c>
+      <c r="E36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43278.666666666664</v>
+      </c>
+      <c r="E37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43269.708333333336</v>
+      </c>
+      <c r="E38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="2">
+        <v>43269.833333333336</v>
+      </c>
+      <c r="E39" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43274.583333333336</v>
+      </c>
+      <c r="E40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43275.583333333336</v>
+      </c>
+      <c r="E41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43279.833333333336</v>
+      </c>
+      <c r="E42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43279.833333333336</v>
+      </c>
+      <c r="E43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43270.708333333336</v>
+      </c>
+      <c r="E44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43270.583333333336</v>
+      </c>
+      <c r="E45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43275.708333333336</v>
+      </c>
+      <c r="E46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="2">
+        <v>43275.833333333336</v>
+      </c>
+      <c r="E47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="2">
+        <v>43279.666666666664</v>
+      </c>
+      <c r="E48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="2">
+        <v>43279.666666666664</v>
+      </c>
+      <c r="E49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">

--- a/src/main/resources/excelimport/WM2018.xlsx
+++ b/src/main/resources/excelimport/WM2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="273">
   <si>
     <t>Country 1</t>
   </si>
@@ -749,6 +749,102 @@
   </si>
   <si>
     <t>Moskau</t>
+  </si>
+  <si>
+    <t>Sieger C</t>
+  </si>
+  <si>
+    <t>Zweiter D</t>
+  </si>
+  <si>
+    <t>Sieger A</t>
+  </si>
+  <si>
+    <t>Zweiter B</t>
+  </si>
+  <si>
+    <t>Sieger B</t>
+  </si>
+  <si>
+    <t>Zweiter A</t>
+  </si>
+  <si>
+    <t>Sieger D</t>
+  </si>
+  <si>
+    <t>Zweiter C</t>
+  </si>
+  <si>
+    <t>Sieger E</t>
+  </si>
+  <si>
+    <t>Zweiter F</t>
+  </si>
+  <si>
+    <t>Sieger G</t>
+  </si>
+  <si>
+    <t>Zweiter H</t>
+  </si>
+  <si>
+    <t>Sieger F</t>
+  </si>
+  <si>
+    <t>Sieger H</t>
+  </si>
+  <si>
+    <t>Zweiter E</t>
+  </si>
+  <si>
+    <t>Zweiter G</t>
+  </si>
+  <si>
+    <t>Sieger A1</t>
+  </si>
+  <si>
+    <t>Zweiter A2</t>
+  </si>
+  <si>
+    <t>Sieger A3</t>
+  </si>
+  <si>
+    <t>Zweiter A4</t>
+  </si>
+  <si>
+    <t>Sieger A5</t>
+  </si>
+  <si>
+    <t>Zweiter A6</t>
+  </si>
+  <si>
+    <t>Sieger A7</t>
+  </si>
+  <si>
+    <t>Zweiter A8</t>
+  </si>
+  <si>
+    <t>Sieger HF1</t>
+  </si>
+  <si>
+    <t>Sieger HF2</t>
+  </si>
+  <si>
+    <t>Verlierer HF1</t>
+  </si>
+  <si>
+    <t>Verlierer HF2</t>
+  </si>
+  <si>
+    <t>Sieger VF1</t>
+  </si>
+  <si>
+    <t>Sieger VF2</t>
+  </si>
+  <si>
+    <t>Sieger VF4</t>
+  </si>
+  <si>
+    <t>Sieger VF3</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E440"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1963,96 +2061,320 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="2"/>
+      <c r="A50" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="2">
+        <v>43281.666666666664</v>
+      </c>
+      <c r="E50" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="2"/>
+      <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43281.833333333336</v>
+      </c>
+      <c r="E51" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="2"/>
+      <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43282.75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="2"/>
+      <c r="A53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43282.833333333336</v>
+      </c>
+      <c r="E53" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="2"/>
+      <c r="A54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="2">
+        <v>43283.666666666664</v>
+      </c>
+      <c r="E54" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="2"/>
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="2">
+        <v>43283.833333333336</v>
+      </c>
+      <c r="E55" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="2"/>
+      <c r="A56" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="2">
+        <v>43284.666666666664</v>
+      </c>
+      <c r="E56" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="2"/>
+      <c r="A57" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="2">
+        <v>43284.833333333336</v>
+      </c>
+      <c r="E57" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="2"/>
+      <c r="A58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43287.666666666664</v>
+      </c>
+      <c r="E58" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="2"/>
+      <c r="A59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="2">
+        <v>43288.833333333336</v>
+      </c>
+      <c r="E59" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="2"/>
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="2">
+        <v>43287.833333333336</v>
+      </c>
+      <c r="E60" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="2"/>
+      <c r="A61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="2">
+        <v>43288.666666666664</v>
+      </c>
+      <c r="E61" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="2"/>
+      <c r="A62" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="2">
+        <v>43291.833333333336</v>
+      </c>
+      <c r="E62" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="2"/>
+      <c r="A63" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="2">
+        <v>43292.833333333336</v>
+      </c>
+      <c r="E63" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="2">
+        <v>43296.708333333336</v>
+      </c>
+      <c r="E64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43295.666666666664</v>
+      </c>
+      <c r="E65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">

--- a/src/main/resources/excelimport/WM2018.xlsx
+++ b/src/main/resources/excelimport/WM2018.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA1ACC81-D06C-4D3A-9384-855E8603DCF2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
@@ -850,7 +851,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1211,11 +1212,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>217</v>
@@ -1493,7 +1494,7 @@
         <v>217</v>
       </c>
       <c r="D16" s="2">
-        <v>43272.583333333336</v>
+        <v>43272.708333333336</v>
       </c>
       <c r="E16" t="s">
         <v>229</v>
@@ -1504,13 +1505,13 @@
         <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>217</v>
       </c>
       <c r="D17" s="2">
-        <v>43272.708333333336</v>
+        <v>43272.583333333336</v>
       </c>
       <c r="E17" t="s">
         <v>232</v>
@@ -1535,7 +1536,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>213</v>
@@ -1663,7 +1664,7 @@
         <v>219</v>
       </c>
       <c r="D26" s="2">
-        <v>43268.833333333336</v>
+        <v>43268.583333333336</v>
       </c>
       <c r="E26" t="s">
         <v>231</v>
@@ -1680,7 +1681,7 @@
         <v>219</v>
       </c>
       <c r="D27" s="2">
-        <v>43268.583333333336</v>
+        <v>43268.833333333336</v>
       </c>
       <c r="E27" t="s">
         <v>232</v>
@@ -2105,7 +2106,7 @@
         <v>223</v>
       </c>
       <c r="D52" s="2">
-        <v>43282.75</v>
+        <v>43282.666666666664</v>
       </c>
       <c r="E52" t="s">
         <v>240</v>
@@ -3464,13 +3465,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Countries!$A$1:$A$210</xm:f>
           </x14:formula1>
           <xm:sqref>A2:B440</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Groups!$A$1:$A$13</xm:f>
           </x14:formula1>
@@ -3483,7 +3484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A210"/>
   <sheetViews>
     <sheetView topLeftCell="A191" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4554,7 +4555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
